--- a/receipts/Spending.xlsx
+++ b/receipts/Spending.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Who</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>I paid</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
     <t>DD on Dads NW account</t>
   </si>
   <si>
-    <t>Will get cash on card</t>
-  </si>
-  <si>
     <t>Installation </t>
   </si>
   <si>
@@ -58,6 +52,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Will get cash on card 250+250+250+170</t>
+  </si>
+  <si>
+    <t>Bed and wardobe</t>
+  </si>
+  <si>
+    <t>I paid by cheque</t>
+  </si>
+  <si>
+    <t>I paid by Barclaycard</t>
+  </si>
+  <si>
+    <t>Argos</t>
   </si>
 </sst>
 </file>
@@ -463,13 +472,13 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
@@ -510,32 +519,40 @@
         <v>920</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>59.98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>948.93</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,18 +655,18 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>979.98</v>
+        <v>1928.9099999999999</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/receipts/Spending.xlsx
+++ b/receipts/Spending.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Who</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>Argos</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>I paid by check</t>
+  </si>
+  <si>
+    <t>currys</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>Dads NW card</t>
+  </si>
+  <si>
+    <t>b&amp;q</t>
+  </si>
+  <si>
+    <t>curtain pole</t>
+  </si>
+  <si>
+    <t>home base</t>
+  </si>
+  <si>
+    <t>tv bracket</t>
+  </si>
+  <si>
+    <t>curtains</t>
+  </si>
+  <si>
+    <t>post office</t>
+  </si>
+  <si>
+    <t>redirection</t>
+  </si>
+  <si>
+    <t>66ish</t>
   </si>
 </sst>
 </file>
@@ -472,7 +511,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,45 +595,89 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>820</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>569</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>36.49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,7 +743,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="5">
         <f>SUM(C3:C19)</f>
-        <v>1928.9099999999999</v>
+        <v>3372.3999999999996</v>
       </c>
       <c r="D20" s="2"/>
     </row>

--- a/receipts/Spending.xlsx
+++ b/receipts/Spending.xlsx
@@ -15,8 +15,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Who</t>
   </si>
@@ -106,13 +131,85 @@
   </si>
   <si>
     <t>66ish</t>
+  </si>
+  <si>
+    <t>Our Sain card</t>
+  </si>
+  <si>
+    <t>Owes me</t>
+  </si>
+  <si>
+    <t>shower basket</t>
+  </si>
+  <si>
+    <t>wheelchair hire</t>
+  </si>
+  <si>
+    <t>tesco</t>
+  </si>
+  <si>
+    <t>duvet set</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>timpson</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>crockery</t>
+  </si>
+  <si>
+    <t>Dad Owes us</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>bq</t>
+  </si>
+  <si>
+    <t>betterlife</t>
+  </si>
+  <si>
+    <t>Zimmer Frame</t>
+  </si>
+  <si>
+    <t>My BC</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>Disk for TV</t>
+  </si>
+  <si>
+    <t>Shower basket</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Stairgate</t>
+  </si>
+  <si>
+    <t>My Bc</t>
+  </si>
+  <si>
+    <t>Security Stuff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +229,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -154,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,11 +296,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -206,6 +321,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,23 +627,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,20 +655,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -557,14 +685,18 @@
       <c r="C3" s="4">
         <v>920</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,12 +706,13 @@
       <c r="C4" s="5">
         <v>59.98</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -589,12 +722,18 @@
       <c r="C5" s="3">
         <v>948.93</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>948.93</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5">
+        <v>948.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,12 +743,18 @@
       <c r="C6" s="2">
         <v>820</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>820</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -619,12 +764,13 @@
       <c r="C7" s="3">
         <v>569</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -634,12 +780,13 @@
       <c r="C8" s="2">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -649,23 +796,29 @@
       <c r="C9" s="3">
         <v>36.49</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -675,86 +828,309 @@
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.3</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>82.98</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <v>33.94</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20">
+        <v>33.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>106.35</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3">
+        <v>85.46</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
+        <v>85.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3">
+        <v>58.98</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5">
-        <f>SUM(C3:C19)</f>
-        <v>3372.3999999999996</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5">
+        <f>SUM(C3:C29)</f>
+        <v>4005.06</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+      <c r="G30">
+        <f>SUM(G5:G29)</f>
+        <v>1995.31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
